--- a/i18n/excel_from_translation/slugstatus.farming.co.uk.xlsx
+++ b/i18n/excel_from_translation/slugstatus.farming.co.uk.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_54E1F1F4E13303C45A04C8A74301DDF4061A8516" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9909FA15-689F-4C15-9648-4C1EBDDDD28C}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_54E1F1F4E13303C45A04C8A74301DDF4061A8516" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DC0685-7B9A-4633-8625-DADAD70EAAC9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>KEY</t>
   </si>
@@ -144,6 +144,22 @@
 </t>
   </si>
   <si>
+    <t>KENKĖJAS: Šliužai, plačiai paplitę daugelyje sodininkystės ir daržininkystės pasėliuose ir gali kenkti pasėliams ištisus metus. Kadangi poveikis derliui ir (arba) kokybei potencialiai gali būti didelis, svarbu kontroliuoti pagrindinių rūšių šliužų populiacijas.
+SPRENDIMAS: Šliužų plitimo kontrolė veiksmingiausia, kai ji vykdoma didelio šliužų aktyvumo laikotarpiais. „SlugWatch“ prognozė pateikia informaciją apie oro sąlygas ir duomenis apie šliužų aktyvumą konkrečioje vietovėje, padedant priimti pagrįstus sprendimus dėl šliužų stebėsenos ir tolimesnės kontrolės laiko ir vietos. 
+MODELIS: „SlugWatch“ modelis prognozuoja šliužų aktyvumą pagal prognozuojamas oro sąlygas. 
+PARAMETRAI: Modelis naudoja dirvožemio ir oro temperatūras ir kritulių kiekį. 
+ŠALTINIS: Sukurtas „CertisBelchim“, išvystytas "Farming Online Ltd.". Patvirtintas Jungtinėje Karalystėje ir Prancūzijoje, laikomas tinkamu su atsargumu naudoti Airijoje, Ispanijoje, Belgijoje, Nyderlanduose, Vokietijoje ir Danijoje. 
+PRIELAIDOS: Šis modelis nenumato tikrojo šliužų gausumo, o tik sąlyginę šliužų aktyvumo riziką, jei jie aptinkami. Norint įvertinti faktinį didelio šliužų aktyvumo pavojų pasėliams, būtina atlikti stebėseną pasėlyje. Remkitės atitinkamomis ekonominėmis žalingumo ribomis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE RAVAGEUR : Largement présentes en grandes cultures et cultures légumières de plein champ, les limaces peuvent endommager les cultures tout au long de l'année. Les impacts sur le rendement et/ou la qualité pouvant être graves, il est important de gérer les populations des principales espèces de limaces. 
+LA DÉCISION : La gestion des infestations de limaces est plus efficace lorsqu'elle est ciblée sur les périodes de forte activité des limaces. Les prévisions de SlugWatch fournissent des données sur l'activité des limaces en fonction du lieu, ainsi que des informations sur les conditions météorologiques, ce qui permet de prendre des décisions éclairées sur le moment et le lieu de la surveillance des limaces et de la gestion ultérieure. 
+LE MODÈLE : Le modèle SlugWatch prévoit l'activité des limaces en fonction des conditions météorologiques prévues. 
+LES PARAMÈTRES : Le modèle utilise la température du sol, la température de l'air et les précipitations. 
+SOURCE : Créé par CertisBelchim et développé par Farming Online Ltd. Validé au Royaume-Uni et en France, considéré comme approprié pour une utilisation avec précaution en Irlande, Espagne, Belgique, Pays-Bas, Allemagne et Danemark. 
+HYPOTHÈSES : Ce modèle ne fait aucune prédiction sur l'abondance réelle des limaces, seulement sur le risque relatif d'activité des limaces si elles sont présentes. Un suivi sur le terrain est nécessaire pour évaluer le risque réel pour les cultures d'une forte activité des limaces. Veuillez vous référer aux seuils économiques appropriés pour le traitement. </t>
+  </si>
+  <si>
     <t>"Il parassita: ampiamente presenti in molti campi di orticoltura e seminativi, le lumache possono danneggiare le colture durante tutto l'anno. Con impatti potenzialmente gravi sulla resa e/o sulla qualità, è importante gestire le popolazioni delle principali specie di lumache. 
 LA DECISIONE: La gestione delle infestazioni di lumache è più efficace se mirata ai periodi di maggiore attività delle lumache. Le previsioni di SlugWatch forniscono dati specifici sull'attività delle limacce, insieme a informazioni sulle condizioni meteorologiche, aiutando a prendere decisioni informate sui tempi e i luoghi del monitoraggio delle limacce e della successiva gestione. 
 IL MODELLO: il modello SlugWatch prevede l'attività delle lumache in base alle condizioni meteorologiche previste. 
@@ -152,6 +168,14 @@
 ASSUNZIONI: Questo modello non fa previsioni sull'effettiva abbondanza di lumache, ma solo sul rischio relativo di attività delle lumache in caso di loro presenza. È necessario un monitoraggio in campo per valutare il rischio effettivo per le colture di un'elevata attività delle limacce. Fare riferimento alle soglie economiche appropriate per il trattamento. "</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ο Εχθρός: Ευρέως παρόντες σε πολλά κηπευτικά και αροτραία χωράφια, οι γυμνοσάλιαγκες μπορούν να προκαλέσουν ζημιές στις καλλιέργειες όλο το χρόνο. Με δυνητικά σοβαρές επιπτώσεις στην απόδοση ή/και την ποιότητα, είναι σημαντικό να διαχειριστείτε τους πληθυσμούς των βασικών ειδών γυμνοσάλιαγκων. 
+Η ΑΠΟΦΑΣΗ: Η διαχείριση των προσβολών από γυμνοσάλιαγκες είναι πιο αποτελεσματική όταν στοχεύει σε περιόδους υψηλής δραστηριότητας γυμνοσάλιαγκων. Η πρόβλεψη SlugWatch παρέχει δεδομένα για τη δραστηριότητα των γυμνοσάλιαγκων σε συγκεκριμένες τοποθεσίες, μαζί με πληροφορίες για τις καιρικές συνθήκες, βοηθώντας στη λήψη τεκμηριωμένων αποφάσεων σχετικά με το χρόνο και τη θέση παρακολούθησης των γυμνοσάλιαγκων και την επακόλουθη διαχείριση. 
+ΤΟ ΜΟΝΤΕΛΟ: Το μοντέλο SlugWatch προβλέπει τη δραστηριότητα των γυμνοσάλιαγκων με βάση τις προβλεπόμενες καιρικές συνθήκες. 
+ΟΙ ΠΑΡΑΜΕΤΡΟΙ: Το μοντέλο χρησιμοποιεί τη θερμοκρασία του εδάφους, τη θερμοκρασία του αέρα και τη βροχόπτωση. 
+ΠΗΓΗ: Δημιουργήθηκε από την CertisBelchim και αναπτύχθηκε από την Farming Online Ltd. Επικυρώθηκε στο Ηνωμένο Βασίλειο και τη Γαλλία και θεωρείται κατάλληλο για χρήση με προσοχή στην Ιρλανδία, την Ισπανία, το Βέλγιο, τις Κάτω Χώρες, τη Γερμανία και τη Δανία. 
+ΥΠΟΘΕΣΕΙΣ: Αυτό το μοντέλο δεν κάνει καμία πρόβλεψη σχετικά με την πραγματική αφθονία των γυμνοσάλιαγκων, παρά μόνο τον σχετικό κίνδυνο δραστηριότητας των γυμνοσάλιαγκων εάν υπάρχουν. Απαιτείται παρακολούθηση στον αγρό για να εκτιμηθεί ο πραγματικός κίνδυνος για τις καλλιέργειες από την υψηλή δραστηριότητα των γυμνοσάλιαγκων. Παρακαλούμε ανατρέξτε στα κατάλληλα οικονομικά κατώτατα όρια για την αντιμετώπιση. </t>
+  </si>
+  <si>
     <t>slugstatus.farming.co.uk.1_0.models.SlugWatch2023.name</t>
   </si>
   <si>
@@ -182,14 +206,23 @@
     <t>Tarkastele sijaintikohtaisia reaaliaikaisia ja 7 päivän ennustetietoja etanan aktiivisuudesta</t>
   </si>
   <si>
+    <t>Stebėkite konkrečios vietovės tiesioginės ir 7 dienų prognozių duomenis apie šliužų aktyvumą.</t>
+  </si>
+  <si>
+    <t>Visualisez les données sur l'activité des limaces en direct et les prévisions à 7 jours, en fonction du lieu.</t>
+  </si>
+  <si>
     <t>Visualizzare i dati sull'attività delle lumache in tempo reale e le previsioni per 7 giorni, specifiche per ogni località.</t>
+  </si>
+  <si>
+    <t>Προβολή δεδομένων δραστηριότητας γυμνοσάλιαγκων για συγκεκριμένη τοποθεσία σε ζωντανή μετάδοση και πρόβλεψη 7 ημερών</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +245,22 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -296,9 +349,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -712,6 +773,15 @@
         <v>17</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -724,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -733,6 +803,8 @@
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="4"/>
     <col min="7" max="8" width="9.140625" style="4"/>
+    <col min="11" max="11" width="57.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -813,13 +885,22 @@
       <c r="I2" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="L2" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30.75">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -837,39 +918,54 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="198">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1138,15 +1234,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
@@ -1159,14 +1246,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{665D6346-A35E-44C8-92A0-E9C787F6A854}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F50EBD-411E-4C8D-ADE1-21E212F78D03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD2F107-2DAB-4AE0-ACDC-947F3191DA5A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD2F107-2DAB-4AE0-ACDC-947F3191DA5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F50EBD-411E-4C8D-ADE1-21E212F78D03}"/>
 </file>